--- a/VennOutput/Trimmed_OUTPUT6_VennResults.xlsx
+++ b/VennOutput/Trimmed_OUTPUT6_VennResults.xlsx
@@ -396,7 +396,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MODERNA_JANSSEN</t>
+          <t>Moderna_Janssen</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -408,7 +408,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MODERNA_JANSSEN</t>
+          <t>Moderna_Janssen</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -420,7 +420,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MODERNA_JANSSEN</t>
+          <t>Moderna_Janssen</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -432,7 +432,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -444,7 +444,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -456,7 +456,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -480,7 +480,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -492,7 +492,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -504,7 +504,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -516,7 +516,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -528,7 +528,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -540,7 +540,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -552,7 +552,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -564,7 +564,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -576,7 +576,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -588,7 +588,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -600,7 +600,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -612,7 +612,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -636,7 +636,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -648,7 +648,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -660,7 +660,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -672,7 +672,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -708,7 +708,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -720,7 +720,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -744,7 +744,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -756,7 +756,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -768,7 +768,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -780,7 +780,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -792,7 +792,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -804,7 +804,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -816,7 +816,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -840,7 +840,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -852,7 +852,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -864,7 +864,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -876,7 +876,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -900,7 +900,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -912,7 +912,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -924,7 +924,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -936,7 +936,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -948,7 +948,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -960,7 +960,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -972,7 +972,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -984,7 +984,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -996,7 +996,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1008,7 +1008,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1020,7 +1020,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1032,7 +1032,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1044,7 +1044,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1056,7 +1056,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1068,7 +1068,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1080,7 +1080,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PFIZER_MODERNA</t>
+          <t>Pfizer_Moderna</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1104,7 +1104,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PFIZER_MODERNA</t>
+          <t>Pfizer_Moderna</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1116,7 +1116,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PFIZER_MODERNA</t>
+          <t>Pfizer_Moderna</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1128,7 +1128,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PFIZER_MODERNA</t>
+          <t>Pfizer_Moderna</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1140,7 +1140,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1152,7 +1152,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1164,7 +1164,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1176,7 +1176,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1188,7 +1188,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1200,7 +1200,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1212,7 +1212,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1224,7 +1224,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1236,7 +1236,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1248,7 +1248,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1260,7 +1260,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1272,7 +1272,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1284,7 +1284,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1308,7 +1308,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1320,7 +1320,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1332,7 +1332,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1344,7 +1344,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1356,7 +1356,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1368,7 +1368,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1380,7 +1380,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1392,7 +1392,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1416,7 +1416,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1428,7 +1428,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1440,7 +1440,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1452,7 +1452,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1464,7 +1464,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1476,7 +1476,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1488,7 +1488,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1512,7 +1512,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1524,7 +1524,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1536,7 +1536,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1548,7 +1548,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1560,7 +1560,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1572,7 +1572,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1584,7 +1584,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1596,7 +1596,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1608,7 +1608,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1620,7 +1620,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1632,7 +1632,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1644,7 +1644,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1656,7 +1656,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1668,7 +1668,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1680,7 +1680,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1692,7 +1692,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1716,7 +1716,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">

--- a/VennOutput/Trimmed_OUTPUT6_VennResults.xlsx
+++ b/VennOutput/Trimmed_OUTPUT6_VennResults.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:Q114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -368,6 +368,81 @@
           <t>Detail</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Case No.x</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PRR.x</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage of cases.x</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Xsquared.x</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Significance.x</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Case No.y</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PRR.y</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage of cases.y</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Xsquared.y</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Significance.y</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Case No</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>PRR</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage of cases</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Xsquared</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Significance</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -380,6 +455,81 @@
           <t>Ageusia</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2381</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.2601635950698</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1942.7638397384</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2.0801295493461</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>653.71725477432</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2.1326028022144</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>240.40086688381</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -392,6 +542,81 @@
           <t>Taste disorder</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.9785312393742</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>712.57192293166</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>940</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2.599049421901</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>526.54441096714</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2.1734670270411</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>112.61329026034</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -404,6 +629,56 @@
           <t>Chills</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>44223</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2.0169510614899</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>15572.172816902</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>11387</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2.3058760331307</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>8298.430309043</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -416,6 +691,56 @@
           <t>Fatigue</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>47860</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2.0001851981684</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>16619.489729775</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>10913</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2.0060988065846</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>5537.3812804228</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -428,6 +753,56 @@
           <t>Impaired work ability</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2714</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2.0895906154423</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>963.37867729057</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2.2037401324983</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>392.73585029279</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -440,6 +815,56 @@
           <t>Acute kidney injury</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>744</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.9475227402714</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>771.15612589791</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2.3641674113145</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>96.155851191426</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -452,6 +877,56 @@
           <t>Acute respiratory failure</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.6762343612065</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>800.07571455512</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>3.1050557098692</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>253.3876397742</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -464,6 +939,56 @@
           <t>Anosmia</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.9173281243687</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2068.2983786425</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2.1756176012691</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>198.20833527784</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -476,6 +1001,56 @@
           <t>Cerebrovascular accident</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1391</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.1141387316307</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>510.82386685532</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2.9445570801217</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>496.49222520946</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -488,6 +1063,56 @@
           <t>Computerised tomogram thorax abnormal</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.5477908202532</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>367.03344850139</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>3.7970656657479</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>414.22465731789</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -500,6 +1125,56 @@
           <t>Deep vein thrombosis</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.1517121939823</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>360.59617028149</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>5.8548287575812</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1663.8080562868</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -512,6 +1187,56 @@
           <t>Dysmenorrhoea</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1090</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.2526391396939</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1228.4108756108</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2.0848649350367</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>88.270808078224</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -524,6 +1249,56 @@
           <t>Facial paralysis</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1333</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.6090201222275</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>760.39820842779</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2.1020334241208</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>143.72064514571</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -536,6 +1311,56 @@
           <t>Fibrin D dimer increased</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.7523890074137</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>453.36394177904</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>4.2441256263998</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>554.61381011292</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -548,6 +1373,56 @@
           <t>Gait inability</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.1038461705339</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>366.40120962739</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2.3631494005458</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>185.74549148752</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -560,6 +1435,56 @@
           <t>Head discomfort</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1531</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.832879038891</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1007.4271283884</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2.5837424478341</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>313.64411413399</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -572,6 +1497,56 @@
           <t>Heavy menstrual bleeding</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2508</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.7683914123906</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3181.0698363971</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2.4861802292135</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>353.95316261067</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -584,6 +1559,56 @@
           <t>Hot flush</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1792</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.1598767737411</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>693.27149542532</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2.3825926778327</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>334.11963400145</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -596,6 +1621,56 @@
           <t>Menstrual disorder</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1436</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.1810836254107</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1590.3314094081</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2.0979641115574</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>120.32061186226</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -608,6 +1683,56 @@
           <t>Menstruation irregular</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1875</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.0525973115294</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2007.9557693375</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2.1733805357621</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>181.45643427328</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -620,6 +1745,56 @@
           <t>Migraine</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4132</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.039119675676</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1395.7910062878</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>1239</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2.7088626978692</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>1196.4763736993</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -632,6 +1807,56 @@
           <t>Muscle tightness</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1050</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.0049923175957</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>336.93861283874</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2.2744365372584</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>175.12882246925</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -644,6 +1869,56 @@
           <t>Myocardial infarction</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>740</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.3529448265544</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>344.55293921167</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2.1074663754079</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>85.068718362242</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -656,6 +1931,56 @@
           <t>Panic attack</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.6393477465072</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>390.40364841993</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2.1319743371421</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>75.146839128932</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -668,6 +1993,56 @@
           <t>Parosmia</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.1920627829609</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>555.084793871</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2.2537528227453</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>86.183176157878</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -680,6 +2055,56 @@
           <t>Pulmonary embolism</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1339</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.3045308097638</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>598.14827239604</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>4.5713863387255</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>1348.4382221447</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -692,6 +2117,56 @@
           <t>Seizure</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2373</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.1005569011755</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>860.07338975375</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2.4998456528289</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>525.94970519544</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -704,6 +2179,56 @@
           <t>Thrombosis</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1737</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.3783721817036</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>829.74348483664</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>6.6609177891553</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>3711.495618822</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -716,6 +2241,31 @@
           <t>Angiogram pulmonary abnormal</t>
         </is>
       </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>5.7411514338074</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>514.57684965757</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -728,6 +2278,31 @@
           <t>Cold sweat</t>
         </is>
       </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>659</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2.5011280686243</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>533.89367935005</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -740,6 +2315,31 @@
           <t>Computerised tomogram head abnormal</t>
         </is>
       </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>4.9911340201401</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>464.8910064439</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -752,6 +2352,31 @@
           <t>Contusion</t>
         </is>
       </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2.0338402003003</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>310.33864196073</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -764,6 +2389,31 @@
           <t>Death</t>
         </is>
       </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>919</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2.0241682076535</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>438.26922510875</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -776,6 +2426,31 @@
           <t>Disorientation</t>
         </is>
       </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2.0792380545445</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>156.94946336108</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -788,6 +2463,31 @@
           <t>Dyspnoea exertional</t>
         </is>
       </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2.8702376564046</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>184.8922977906</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -800,6 +2500,31 @@
           <t>Epistaxis</t>
         </is>
       </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2.1743271416045</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>177.60494010386</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -812,6 +2537,31 @@
           <t>Eye pain</t>
         </is>
       </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2.1103998179013</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>226.20043565422</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -824,6 +2574,31 @@
           <t>Feeling abnormal</t>
         </is>
       </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2474</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>2.1079515237892</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>1339.1925654225</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -836,6 +2611,31 @@
           <t>Feeling cold</t>
         </is>
       </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1125</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2.9700191155594</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>1301.3187074193</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -848,6 +2648,31 @@
           <t>Feeling of body temperature change</t>
         </is>
       </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2.8706379210394</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>232.47927404173</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -860,6 +2685,31 @@
           <t>Head injury</t>
         </is>
       </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2.0679169591081</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>155.59776798209</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -872,6 +2722,31 @@
           <t>Headache</t>
         </is>
       </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>15890</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2.2380160147709</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>11186.706887114</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -884,6 +2759,31 @@
           <t>Heart rate decreased</t>
         </is>
       </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2.0181403245653</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>66.839537044331</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -896,6 +2796,31 @@
           <t>Hyperhidrosis</t>
         </is>
       </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>3612</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>2.7120926819558</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>3552.4627401317</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -908,6 +2833,31 @@
           <t>Hypoxia</t>
         </is>
       </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>2.1204581393316</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>156.38646364972</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -920,6 +2870,31 @@
           <t>Loss of consciousness</t>
         </is>
       </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>1831</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2.2568025397844</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>1176.5759652183</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -932,6 +2907,31 @@
           <t>Magnetic resonance imaging head abnormal</t>
         </is>
       </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>4.7342909920964</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>498.66939756659</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -944,6 +2944,31 @@
           <t>Muscle spasms</t>
         </is>
       </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>1298</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>2.6169108368264</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>1166.7373574753</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -956,6 +2981,31 @@
           <t>Night sweats</t>
         </is>
       </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>2.0357800786913</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>150.81313733665</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -968,6 +3018,31 @@
           <t>Pulmonary thrombosis</t>
         </is>
       </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>5.7631820455827</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>429.59852987553</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -980,6 +3055,31 @@
           <t>Sensitive skin</t>
         </is>
       </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>3.274440157435</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>244.22192283161</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -992,6 +3092,31 @@
           <t>Sensory disturbance</t>
         </is>
       </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>2.5967497363886</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>195.44436016144</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1004,6 +3129,31 @@
           <t>Sinus congestion</t>
         </is>
       </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>2.1092724042773</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>69.799522134257</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1016,6 +3166,31 @@
           <t>Sleep disorder</t>
         </is>
       </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>1061</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2.2318202836315</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>658.74385605758</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1028,6 +3203,31 @@
           <t>Thirst</t>
         </is>
       </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>2.3259025627023</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>135.61796883945</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1040,6 +3240,31 @@
           <t>Ultrasound Doppler abnormal</t>
         </is>
       </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>5.5926363729345</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>727.03015790514</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1052,6 +3277,31 @@
           <t>Ultrasound scan abnormal</t>
         </is>
       </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>2.1198919510052</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>81.571945214047</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1064,6 +3314,31 @@
           <t>Unresponsive to stimuli</t>
         </is>
       </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>2.0189078148981</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>298.15168406607</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1076,6 +3351,31 @@
           <t>Vision blurred</t>
         </is>
       </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>1136</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>2.8058766537046</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>1176.9804325919</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1088,6 +3388,31 @@
           <t>Visual impairment</t>
         </is>
       </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>2.2630939453878</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>331.72027640361</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1100,6 +3425,56 @@
           <t>Atrial fibrillation</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1251</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.5013311406308</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>659.47612253779</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>1145</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2.110010665153</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>414.49377160335</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1112,6 +3487,56 @@
           <t>Bell\'s palsy</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1728</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.3560331323913</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1465.7600099869</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>1384</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2.2077031914348</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>557.48313674339</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1124,6 +3549,56 @@
           <t>Pharyngeal swelling</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2313</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.4913594648283</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2070.2698958471</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>1810</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2.1962171306905</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>721.31361238945</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1136,6 +3611,56 @@
           <t>Vaccination site pain</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>6436</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.2312931346383</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2707.1242430537</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>9006</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>4.0834926562651</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>9699.8152726511</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1148,6 +3673,31 @@
           <t>Injection site pruritus</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>16757</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>4.233658215708</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>18952.504960933</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1160,6 +3710,31 @@
           <t>Injection site rash</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>9455</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>3.1846863985586</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>7459.4689064547</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1172,6 +3747,31 @@
           <t>Limb discomfort</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2380</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2.1743131809965</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>928.09845309102</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1184,6 +3784,31 @@
           <t>Peripheral swelling</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>10143</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2.2570030578399</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>4364.3001978023</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1196,6 +3821,31 @@
           <t>Rash pruritic</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>5336</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2.0771709087731</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>1876.2788954526</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1208,6 +3858,31 @@
           <t>Vaccination complication</t>
         </is>
       </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>3481</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>3.0514001110313</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>2556.4218282174</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1220,6 +3895,31 @@
           <t>Vaccination site erythema</t>
         </is>
       </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>5670</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>11.314881114161</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>12497.024410302</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1232,6 +3932,31 @@
           <t>Vaccination site induration</t>
         </is>
       </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>1205</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>10.474852028185</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2554.1678908012</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1244,6 +3969,31 @@
           <t>Vaccination site mass</t>
         </is>
       </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>838</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>5.0786901640013</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>1107.8513474225</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1256,6 +4006,31 @@
           <t>Vaccination site pruritus</t>
         </is>
       </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>3716</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>15.695463028941</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>9221.8660416118</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1268,6 +4043,31 @@
           <t>Vaccination site rash</t>
         </is>
       </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2350</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>10.829372591254</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>5064.7014652282</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1280,6 +4080,31 @@
           <t>Vaccination site reaction</t>
         </is>
       </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>1160</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>8.680728897108</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>2238.1274978018</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1292,6 +4117,31 @@
           <t>Vaccination site swelling</t>
         </is>
       </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>4312</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>5.5427362744945</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>6177.9740109907</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1304,6 +4154,31 @@
           <t>Vaccination site warmth</t>
         </is>
       </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>3011</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>8.6230781787741</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>5803.1672780574</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1316,6 +4191,31 @@
           <t>Anxiety</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>4279</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.2146562186405</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1762.7558627129</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1328,6 +4228,31 @@
           <t>Axillary pain</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>3002</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.678202052248</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1800.815783082</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1340,6 +4265,31 @@
           <t>Blood pressure increased</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>3327</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.4949369372949</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1753.1456032431</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1352,6 +4302,31 @@
           <t>Breast pain</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.9537921799595</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>714.64025233218</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1364,6 +4339,31 @@
           <t>Chest discomfort</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>8180</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.5930010674127</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4671.8648976721</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1376,6 +4376,31 @@
           <t>Chest pain</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>11968</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.5198085997807</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6522.9370732549</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1388,6 +4413,31 @@
           <t>Deafness</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.032920017801</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>268.79473971201</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1400,6 +4450,31 @@
           <t>Dysgeusia</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2390</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.5247701503688</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1285.9468254793</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1412,6 +4487,31 @@
           <t>Ear discomfort</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1362</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.999003062478</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>980.90864751235</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1424,6 +4524,31 @@
           <t>Echocardiogram abnormal</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.2560802891191</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>290.11555046615</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1436,6 +4561,31 @@
           <t>Electrocardiogram abnormal</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1394</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.2172202048345</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>572.16827351989</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1448,6 +4598,31 @@
           <t>Flushing</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>4879</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.3187642840927</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2224.5718036753</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1460,6 +4635,31 @@
           <t>Heart rate increased</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>6946</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.2740600667442</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3049.0872041148</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1472,6 +4672,31 @@
           <t>Heart rate irregular</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.6346103310933</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>546.80070386229</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1484,6 +4709,31 @@
           <t>Hypoacusis</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.4990992215543</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>410.26506019362</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1496,6 +4746,31 @@
           <t>Hypoaesthesia oral</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2604</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.7935575056001</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1677.9097672615</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1508,6 +4783,31 @@
           <t>Intermenstrual bleeding</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>780</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5.2947691425854</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1084.4007575575</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1520,6 +4820,31 @@
           <t>Lymph node pain</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2702</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.0239207514233</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1976.1228878212</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1532,6 +4857,31 @@
           <t>Lymphadenopathy</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>11810</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.288631141214</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5302.3395412225</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1544,6 +4894,31 @@
           <t>Myocarditis</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>1542</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4.0907796139103</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1667.6516944668</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1556,6 +4931,31 @@
           <t>Nervousness</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1212</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.0469540798376</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>410.57685612628</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1568,6 +4968,31 @@
           <t>Oropharyngeal discomfort</t>
         </is>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3.4053319838259</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>673.89173664015</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1580,6 +5005,31 @@
           <t>Oropharyngeal pain</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>6060</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.0723870173468</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2140.4284621732</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1592,6 +5042,31 @@
           <t>Oxygen saturation decreased</t>
         </is>
       </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>942</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.1004560566957</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>339.94929815046</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1604,6 +5079,31 @@
           <t>Palpitations</t>
         </is>
       </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>7385</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.6657564353771</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4426.580631771</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1616,6 +5116,31 @@
           <t>Paraesthesia oral</t>
         </is>
       </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>3627</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.9442698410734</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2549.2860254376</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1628,6 +5153,31 @@
           <t>Pericarditis</t>
         </is>
       </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>975</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.9258786041331</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>674.85040023276</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1640,6 +5190,31 @@
           <t>Respiratory tract congestion</t>
         </is>
       </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.3316680459074</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>878.73103635084</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1652,6 +5227,31 @@
           <t>Swollen tongue</t>
         </is>
       </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2421</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.3785062039303</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1158.3811593568</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1664,6 +5264,31 @@
           <t>Throat irritation</t>
         </is>
       </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>3323</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.5712983746307</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1853.3557220071</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -1676,6 +5301,31 @@
           <t>Throat tightness</t>
         </is>
       </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>3708</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.2782523199419</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1624.4675022284</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -1688,6 +5338,31 @@
           <t>Tinnitus</t>
         </is>
       </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>6933</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.9230924635173</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4843.3107108646</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -1700,6 +5375,31 @@
           <t>Troponin increased</t>
         </is>
       </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>1411</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>4.3226389030519</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1619.1232403196</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -1712,6 +5412,31 @@
           <t>Vaginal haemorrhage</t>
         </is>
       </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>870</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.9528520218265</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>610.70694359216</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -1722,6 +5447,31 @@
       <c r="B114" t="inlineStr">
         <is>
           <t>Vertigo</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>3859</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.1292843461081</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1449.842343903</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
     </row>
